--- a/data/Results/RunsRaspberryPi3B-Uni-VC4CL-Load10000.xlsx
+++ b/data/Results/RunsRaspberryPi3B-Uni-VC4CL-Load10000.xlsx
@@ -1,32 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da44d96d43664ef3/Dokumente/Uni/SS2019/Eingebette Systeme Praktikum/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Moritz Herzog\Documents\Projekte\EmbeddedSystemsProject\data\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{43D775E3-6A1F-4521-BFE1-511912029754}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3E588E-3481-43F0-99E4-5744CBC7AA4D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="790"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Serial Single Theadded" sheetId="1" r:id="rId1"/>
-    <sheet name="Serial Multi Threadded" sheetId="3" r:id="rId2"/>
-    <sheet name="ASAP Single Threadded" sheetId="4" r:id="rId3"/>
-    <sheet name="ASAP Multithreadded" sheetId="5" r:id="rId4"/>
-    <sheet name="Static Single Threadded" sheetId="6" r:id="rId5"/>
-    <sheet name="Static Multi Threadded" sheetId="7" r:id="rId6"/>
-    <sheet name="Ready Fire Single Threadded" sheetId="8" r:id="rId7"/>
+    <sheet name="Overall" sheetId="9" r:id="rId1"/>
+    <sheet name="Serial Single Theadded" sheetId="1" r:id="rId2"/>
+    <sheet name="Serial Multi Threadded" sheetId="3" r:id="rId3"/>
+    <sheet name="ASAP Single Threadded" sheetId="4" r:id="rId4"/>
+    <sheet name="ASAP Multithreadded" sheetId="5" r:id="rId5"/>
+    <sheet name="Static Single Threadded" sheetId="6" r:id="rId6"/>
+    <sheet name="Static Multi Threadded" sheetId="7" r:id="rId7"/>
+    <sheet name="Ready Fire Single Threadded" sheetId="8" r:id="rId8"/>
+    <sheet name="Ready Fire Multi Threadded" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="15">
   <si>
     <t xml:space="preserve">Serial </t>
   </si>
@@ -48,11 +58,35 @@
   <si>
     <t xml:space="preserve">R. F. S. </t>
   </si>
+  <si>
+    <t>Serial WGS 1</t>
+  </si>
+  <si>
+    <t>Serial WGS 10</t>
+  </si>
+  <si>
+    <t>ASAP WGS 1</t>
+  </si>
+  <si>
+    <t>ASAP WGS 10</t>
+  </si>
+  <si>
+    <t>Static WGS 1</t>
+  </si>
+  <si>
+    <t>Static WGS 10</t>
+  </si>
+  <si>
+    <t>RFS WGS 1</t>
+  </si>
+  <si>
+    <t>RFS WGS 10</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -625,6 +659,2630 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
+              <a:t>VC4CL Schedules</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Overall!$A$1:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Serial WGS 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Serial WGS 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ASAP WGS 1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ASAP WGS 10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Static WGS 1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Static WGS 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RFS WGS 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>RFS WGS 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Overall!$B$1:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>26995.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26484.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>466.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>163.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>462.86666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>151.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>968.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>308.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AD8B-4827-A9B4-2C8DDBEB003D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="317679984"/>
+        <c:axId val="228663136"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="317679984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="228663136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="228663136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="317679984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Run</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Static Multi Threadded'!$A$1:$C$10</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>'Static Multi Threadded'!$A$1:$A$10</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Static Multi Threadded'!$A$1:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Static </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Static </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Static </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Static </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Static </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Static </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Static </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Static </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Static </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Static </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Static Multi Threadded'!$D$1:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C709-4430-9B67-CF3CD26E6A55}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1724900944"/>
+        <c:axId val="2049991776"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Average</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Static Multi Threadded'!$A$1:$C$10</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>'Static Multi Threadded'!$A$1:$A$10</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Static Multi Threadded'!$A$1:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Static </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Static </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Static </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Static </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Static </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Static </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Static </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Static </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Static </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Static </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Static Multi Threadded'!$E$1:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>151.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>151.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>151.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>151.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>151.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>151.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>151.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>151.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>151.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>151.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C709-4430-9B67-CF3CD26E6A55}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1724900944"/>
+        <c:axId val="2049991776"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1724900944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2049991776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2049991776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1724900944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Ready Fire Single Threadded'!$A$1:$C$10</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>'Ready Fire Single Threadded'!$A$1:$A$10</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Ready Fire Single Threadded'!$A$1:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>R. F. S. </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>R. F. S. </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R. F. S. </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R. F. S. </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>R. F. S. </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>R. F. S. </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>R. F. S. </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>R. F. S. </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>R. F. S. </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>R. F. S. </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ready Fire Single Threadded'!$D$1:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>967</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>962</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>962</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>961</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>958</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>984</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>977</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>991</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>962</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C245-4500-9414-8767B70E557D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2039954368"/>
+        <c:axId val="471161136"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Ready Fire Single Threadded'!$A$1:$C$10</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>'Ready Fire Single Threadded'!$A$1:$A$10</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Ready Fire Single Threadded'!$A$1:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>R. F. S. </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>R. F. S. </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R. F. S. </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R. F. S. </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>R. F. S. </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>R. F. S. </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>R. F. S. </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>R. F. S. </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>R. F. S. </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>R. F. S. </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ready Fire Single Threadded'!$E$1:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>968.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>968.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>968.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>968.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>968.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>968.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>968.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>968.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>968.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>968.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C245-4500-9414-8767B70E557D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2039954368"/>
+        <c:axId val="471161136"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2039954368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="471161136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="471161136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2039954368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Ready Fire Multi Threadded'!$A$1:$C$10</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>'Ready Fire Multi Threadded'!$A$1:$A$10</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Ready Fire Multi Threadded'!$A$1:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>R. F. S. </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>R. F. S. </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R. F. S. </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R. F. S. </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>R. F. S. </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>R. F. S. </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>R. F. S. </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>R. F. S. </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>R. F. S. </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>R. F. S. </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ready Fire Multi Threadded'!$D$1:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>337</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FEF3-4297-BE2B-EA0B593463C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="315353040"/>
+        <c:axId val="318690224"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Ready Fire Multi Threadded'!$A$1:$C$10</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>'Ready Fire Multi Threadded'!$A$1:$A$10</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Ready Fire Multi Threadded'!$A$1:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>R. F. S. </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>R. F. S. </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R. F. S. </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R. F. S. </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>R. F. S. </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>R. F. S. </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>R. F. S. </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>R. F. S. </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>R. F. S. </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>R. F. S. </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ready Fire Multi Threadded'!$E$1:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>308.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>308.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>308.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>308.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>308.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>308.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>308.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>308.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>308.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>308.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FEF3-4297-BE2B-EA0B593463C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="315353040"/>
+        <c:axId val="318690224"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="315353040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="318690224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="318690224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="315353040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>VC4CL Schedules</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Overall!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>ASAP WGS 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ASAP WGS 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Static WGS 1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Static WGS 10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RFS WGS 1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>RFS WGS 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Overall!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>466.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>163.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>462.86666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>151.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>968.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>308.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-754A-48EF-B457-58A0827AA86E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="317696384"/>
+        <c:axId val="452465728"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="317696384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="452465728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="452465728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="317696384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Overall!$A$3,Overall!$A$5,Overall!$A$7)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ASAP WGS 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Static WGS 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RFS WGS 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Overall!$B$3,Overall!$B$5,Overall!$B$7)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>466.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>462.86666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>968.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-33E2-4140-958E-8FCC2F5CC980}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="314992256"/>
+        <c:axId val="452468640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="314992256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="452468640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="452468640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="314992256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Overall!$A$4,Overall!$A$6,Overall!$A$8)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ASAP WGS 10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Static WGS 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RFS WGS 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Overall!$B$4,Overall!$B$6,Overall!$B$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>163.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>151.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>308.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9DE8-4378-BB5E-A0ADD05EFE35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="132149072"/>
+        <c:axId val="229849056"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="132149072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="229849056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="229849056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="132149072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
               <a:t>Serial</a:t>
             </a:r>
             <a:r>
@@ -932,7 +3590,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -947,6 +3605,45 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Serial - Workgroup</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> Size: 10</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t>Out of Order: Deavtivated</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1285,7 +3982,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -1638,7 +4335,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -1991,7 +4688,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -2006,6 +4703,45 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Static</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> - Workgroup Size: 1</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t>Out of Order: Deactivated</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2535,969 +5271,127 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Run</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Static Multi Threadded'!$A$1:$C$10</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>'Static Multi Threadded'!$A$1:$A$10</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Static Multi Threadded'!$A$1:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>Static </c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Static </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Static </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Static </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Static </c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Static </c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Static </c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Static </c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Static </c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Static </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Static Multi Threadded'!$D$1:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>152</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C709-4430-9B67-CF3CD26E6A55}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1724900944"/>
-        <c:axId val="2049991776"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Average</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Static Multi Threadded'!$A$1:$C$10</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>'Static Multi Threadded'!$A$1:$A$10</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Static Multi Threadded'!$A$1:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>Static </c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Static </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Static </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Static </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Static </c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Static </c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Static </c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Static </c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Static </c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Static </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Static Multi Threadded'!$E$1:$E$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>151.9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>151.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>151.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>151.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>151.9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>151.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>151.9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>151.9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>151.9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>151.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C709-4430-9B67-CF3CD26E6A55}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1724900944"/>
-        <c:axId val="2049991776"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1724900944"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2049991776"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2049991776"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1724900944"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Ready Fire Single Threadded'!$A$1:$C$10</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>'Ready Fire Single Threadded'!$A$1:$A$10</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Ready Fire Single Threadded'!$A$1:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>R. F. S. </c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>R. F. S. </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>R. F. S. </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>R. F. S. </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>R. F. S. </c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>R. F. S. </c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>R. F. S. </c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>R. F. S. </c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>R. F. S. </c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>R. F. S. </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Ready Fire Single Threadded'!$D$1:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>967</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>962</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>962</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>961</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>958</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>984</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>977</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>991</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>962</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C245-4500-9414-8767B70E557D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="2039954368"/>
-        <c:axId val="471161136"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Ready Fire Single Threadded'!$A$1:$C$10</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>'Ready Fire Single Threadded'!$A$1:$A$10</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Ready Fire Single Threadded'!$A$1:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>R. F. S. </c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>R. F. S. </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>R. F. S. </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>R. F. S. </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>R. F. S. </c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>R. F. S. </c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>R. F. S. </c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>R. F. S. </c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>R. F. S. </c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>R. F. S. </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Ready Fire Single Threadded'!$E$1:$E$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>968.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>968.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>968.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>968.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>968.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>968.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>968.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>968.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>968.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>968.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C245-4500-9414-8767B70E557D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2039954368"/>
-        <c:axId val="471161136"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2039954368"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="471161136"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="471161136"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2039954368"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3777,6 +5671,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4280,7 +6254,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4783,7 +6757,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5286,7 +7260,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5789,7 +7763,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6292,7 +8266,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6795,7 +8769,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7298,20 +9272,2684 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2B7C651-EEF1-4656-8296-C5D83BFFD98E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA00822F-5BCB-4319-AF2E-C0F71E9251C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>36980</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133069</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>36980</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>18769</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AE88B94-8153-4B18-B3C6-B3C8BB2EE5D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>27454</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>27454</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D116376-E009-4EC4-B330-234AB0921636}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7339,20 +11977,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>195262</xdr:colOff>
+      <xdr:colOff>195261</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:rowOff>176211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>195262</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7380,7 +12018,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7421,7 +12059,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7462,7 +12100,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7472,10 +12110,10 @@
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7503,7 +12141,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7544,7 +12182,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7565,6 +12203,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0AE8667-A220-4B61-A3C3-3A9B95C45105}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5E10235-E3E9-47C4-A20B-68EB1BE96259}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7881,11 +12560,103 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569AB103-AA72-400D-99EA-D77E348E4213}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1">
+        <f>'Serial Single Theadded'!E1</f>
+        <v>26995.3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <f>'Serial Multi Threadded'!E1</f>
+        <v>26484.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <f>'ASAP Single Threadded'!E1</f>
+        <v>466.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <f>'ASAP Multithreadded'!E1</f>
+        <v>163.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <f>'Static Single Threadded'!E1</f>
+        <v>462.86666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <f>'Static Multi Threadded'!E1</f>
+        <v>151.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <f>'Ready Fire Single Threadded'!E1</f>
+        <v>968.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <f>'Ready Fire Multi Threadded'!$E$1</f>
+        <v>308.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8082,12 +12853,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8284,8 +13055,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8486,8 +13257,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8688,12 +13459,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8980,8 +13751,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9183,8 +13954,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9383,4 +14154,207 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CBB6325-4433-4A0F-88C4-3806595AA3EF}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>302</v>
+      </c>
+      <c r="E1">
+        <f>AVERAGE(D1:D10)</f>
+        <v>308.2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>300</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE(D1:D10)</f>
+        <v>308.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>297</v>
+      </c>
+      <c r="E3">
+        <f>AVERAGE(D1:D10)</f>
+        <v>308.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>300</v>
+      </c>
+      <c r="E4">
+        <f>AVERAGE(D1:D10)</f>
+        <v>308.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>334</v>
+      </c>
+      <c r="E5">
+        <f>AVERAGE(D1:D10)</f>
+        <v>308.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>300</v>
+      </c>
+      <c r="E6">
+        <f>AVERAGE(D1:D10)</f>
+        <v>308.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>300</v>
+      </c>
+      <c r="E7">
+        <f>AVERAGE(D1:D10)</f>
+        <v>308.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>296</v>
+      </c>
+      <c r="E8">
+        <f>AVERAGE(D1:D10)</f>
+        <v>308.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>316</v>
+      </c>
+      <c r="E9">
+        <f>AVERAGE(D1:D10)</f>
+        <v>308.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>337</v>
+      </c>
+      <c r="E10">
+        <f>AVERAGE(D1:D10)</f>
+        <v>308.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/Results/RunsRaspberryPi3B-Uni-VC4CL-Load10000.xlsx
+++ b/data/Results/RunsRaspberryPi3B-Uni-VC4CL-Load10000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Moritz Herzog\Documents\Projekte\EmbeddedSystemsProject\data\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3E588E-3481-43F0-99E4-5744CBC7AA4D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B59CC42-9E73-44F5-88BB-B842CB548487}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="790" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="9" r:id="rId1"/>
@@ -12110,10 +12110,10 @@
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12563,8 +12563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569AB103-AA72-400D-99EA-D77E348E4213}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13463,8 +13463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/Results/RunsRaspberryPi3B-Uni-VC4CL-Load10000.xlsx
+++ b/data/Results/RunsRaspberryPi3B-Uni-VC4CL-Load10000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Moritz Herzog\Documents\Projekte\EmbeddedSystemsProject\data\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B59CC42-9E73-44F5-88BB-B842CB548487}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC066F6B-7947-4314-B57A-645CBCAF65DD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="790" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="9" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="16">
   <si>
     <t xml:space="preserve">Serial </t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>RFS WGS 10</t>
+  </si>
+  <si>
+    <t>Average Execution Time</t>
   </si>
 </sst>
 </file>
@@ -639,31 +642,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>VC4CL Schedules</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -715,72 +693,42 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Overall!$A$1:$A$8</c:f>
+              <c:f>(Overall!$A$4,Overall!$A$6,Overall!$A$8)</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Serial WGS 1</c:v>
+                  <c:v>ASAP WGS 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Serial WGS 10</c:v>
+                  <c:v>Static WGS 1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>ASAP WGS 1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ASAP WGS 10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Static WGS 1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Static WGS 10</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>RFS WGS 1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>RFS WGS 10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Overall!$B$1:$B$8</c:f>
+              <c:f>(Overall!$B$4,Overall!$B$6,Overall!$B$8)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>26995.3</c:v>
+                  <c:v>466.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26484.6</c:v>
+                  <c:v>462.86666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>466.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>163.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>462.86666666666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>151.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>968.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>308.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AD8B-4827-A9B4-2C8DDBEB003D}"/>
+              <c16:uniqueId val="{00000000-33E2-4140-958E-8FCC2F5CC980}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -794,11 +742,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="317679984"/>
-        <c:axId val="228663136"/>
+        <c:axId val="314992256"/>
+        <c:axId val="452468640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="317679984"/>
+        <c:axId val="314992256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -841,7 +789,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228663136"/>
+        <c:crossAx val="452468640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -849,7 +797,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="228663136"/>
+        <c:axId val="452468640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -900,7 +848,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317679984"/>
+        <c:crossAx val="314992256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2404,37 +2352,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>VC4CL Schedules</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2486,25 +2403,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Overall!$A$3:$A$8</c:f>
+              <c:f>(Overall!$A$5,Overall!$A$7,Overall!$A$9)</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>ASAP WGS 1</c:v>
+                  <c:v>ASAP WGS 10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ASAP WGS 10</c:v>
+                  <c:v>Static WGS 10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Static WGS 1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Static WGS 10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>RFS WGS 1</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>RFS WGS 10</c:v>
                 </c:pt>
               </c:strCache>
@@ -2512,556 +2420,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Overall!$B$3:$B$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>466.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>163.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>462.86666666666667</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>151.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>968.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>308.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-754A-48EF-B457-58A0827AA86E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="317696384"/>
-        <c:axId val="452465728"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="317696384"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="452465728"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="452465728"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="317696384"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>(Overall!$A$3,Overall!$A$5,Overall!$A$7)</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>ASAP WGS 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Static WGS 1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>RFS WGS 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(Overall!$B$3,Overall!$B$5,Overall!$B$7)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>466.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>462.86666666666667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>968.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-33E2-4140-958E-8FCC2F5CC980}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="314992256"/>
-        <c:axId val="452468640"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="314992256"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="452468640"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="452468640"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="314992256"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>(Overall!$A$4,Overall!$A$6,Overall!$A$8)</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>ASAP WGS 10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Static WGS 10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>RFS WGS 10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(Overall!$B$4,Overall!$B$6,Overall!$B$8)</c:f>
+              <c:f>(Overall!$B$5,Overall!$B$7,Overall!$B$9)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3200,6 +2559,616 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="132149072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overall!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Execution Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Overall!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Serial WGS 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Serial WGS 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ASAP WGS 1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ASAP WGS 10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Static WGS 1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Static WGS 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RFS WGS 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>RFS WGS 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Overall!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>26995.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26484.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>466.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>163.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>462.86666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>151.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>968.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>308.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A516-4A3B-B0CC-1F4257A82500}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="541706800"/>
+        <c:axId val="540185520"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="541706800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540185520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="540185520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="541706800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overall!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Execution Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Overall!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>ASAP WGS 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ASAP WGS 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Static WGS 1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Static WGS 10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RFS WGS 1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>RFS WGS 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Overall!$B$4:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>466.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>163.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>462.86666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>151.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>968.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>308.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-70E7-49DC-8C47-CDDE080FFB6B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="453365264"/>
+        <c:axId val="458025616"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="453365264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="458025616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="458025616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="453365264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11791,78 +11760,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>42861</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2B7C651-EEF1-4656-8296-C5D83BFFD98E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagramm 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA00822F-5BCB-4319-AF2E-C0F71E9251C5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>36980</xdr:colOff>
       <xdr:row>14</xdr:row>
@@ -11891,7 +11788,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11916,6 +11813,78 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D116376-E009-4EC4-B330-234AB0921636}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>52386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09576C84-4D6B-454F-A2C1-1EA98E6BC17A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>52386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagramm 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{372D80CA-829B-4CEE-AE1F-9B89FCD3BAAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12561,86 +12530,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569AB103-AA72-400D-99EA-D77E348E4213}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1">
-        <f>'Serial Single Theadded'!E1</f>
-        <v>26995.3</v>
+      <c r="B1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <f>'Serial Multi Threadded'!E1</f>
-        <v>26484.6</v>
+        <f>'Serial Single Theadded'!E1</f>
+        <v>26995.3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <f>'ASAP Single Threadded'!E1</f>
-        <v>466.6</v>
+        <f>'Serial Multi Threadded'!E1</f>
+        <v>26484.6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <f>'ASAP Multithreadded'!E1</f>
-        <v>163.1</v>
+        <f>'ASAP Single Threadded'!E1</f>
+        <v>466.6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <f>'Static Single Threadded'!E1</f>
-        <v>462.86666666666667</v>
+        <f>'ASAP Multithreadded'!E1</f>
+        <v>163.1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <f>'Static Multi Threadded'!E1</f>
-        <v>151.9</v>
+        <f>'Static Single Threadded'!E1</f>
+        <v>462.86666666666667</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <f>'Ready Fire Single Threadded'!E1</f>
-        <v>968.4</v>
+        <f>'Static Multi Threadded'!E1</f>
+        <v>151.9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <f>'Ready Fire Single Threadded'!E1</f>
+        <v>968.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <f>'Ready Fire Multi Threadded'!$E$1</f>
         <v>308.2</v>
       </c>
@@ -13463,7 +13437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
